--- a/src/budget.xlsx
+++ b/src/budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.kakembo\me\budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.kakembo\me\budget\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDCE37B-6DDC-4E05-A5E2-08B932E3BD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC442FCF-D0E7-42E6-9367-96BB9730C0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -101,7 +101,7 @@
     </r>
   </si>
   <si>
-    <t>Monzo</t>
+    <t>Gym</t>
   </si>
   <si>
     <r>
@@ -122,127 +122,6 @@
       </rPr>
       <t>Any</t>
     </r>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>expense</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Any</t>
-    </r>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>expense</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Any</t>
-    </r>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>expense</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Any</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Chess </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>expense</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Any</t>
-    </r>
-  </si>
-  <si>
-    <t>Old Phone</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>expense</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Any</t>
-    </r>
-  </si>
-  <si>
-    <t>Wages</t>
-  </si>
-  <si>
-    <t>income</t>
   </si>
 </sst>
 </file>
@@ -518,7 +397,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -648,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>30</v>
@@ -664,125 +543,46 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C13" s="2">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
